--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_556.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_556.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32796-d653448-Reviews-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Norwalk.h1685564.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_556.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,461 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r450819114-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>32796</t>
+  </si>
+  <si>
+    <t>653448</t>
+  </si>
+  <si>
+    <t>450819114</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>The worst place to ever go!! Stay away!!</t>
+  </si>
+  <si>
+    <t>The staff was super rude they did not hold my  reservations and then try to overcharge me when I got to the location. The room smelled really bad and everything was super dirty. The walls were dirty there was tagging everywhere and the water smelled like a sewer! I would never stay here again and I seriously recommend that no one else stays there either. Don't take my word for look at my pictures!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r429774614-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>429774614</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Nightmare!</t>
+  </si>
+  <si>
+    <t>If you are thinking about staying here please, spend the extra bucks and save yourself the headaches! First off we were deceived because amenities that were stated on the page were not available. WiFi definitely was not available as stated and the webpage. Also mentions, infant/cribs available upon request. When we asked the front desk person, he just gave us a blank stare like we were out of this world. We accepted that neither were available and just decided to go into the room because we were tired from the travel. I turned on the light only to realize it wasn't working. I went to check if there was a bulb and got shocked, I was shaking after that. There were holes in the bathroom wall and the bedroom wall (bullet shaped and covered with a wall picture), can not confirm if that's the actual type of hole, but those were my suspicions! The bathroom smelled like urine or wet rag, I assumed it was from the lack of a shower liner. There were stains on the wall which appeared to be blood! We went across the road to Wal-Mart to purchase deodorizer and disinfectant, since our requests to have the room disinfected were ignored. The beds were hard as a rock, probably better off bringing your own air mattress. The area was terrible, all we heard at night were ambulance and police sirens. I was afraid to leave anything...If you are thinking about staying here please, spend the extra bucks and save yourself the headaches! First off we were deceived because amenities that were stated on the page were not available. WiFi definitely was not available as stated and the webpage. Also mentions, infant/cribs available upon request. When we asked the front desk person, he just gave us a blank stare like we were out of this world. We accepted that neither were available and just decided to go into the room because we were tired from the travel. I turned on the light only to realize it wasn't working. I went to check if there was a bulb and got shocked, I was shaking after that. There were holes in the bathroom wall and the bedroom wall (bullet shaped and covered with a wall picture), can not confirm if that's the actual type of hole, but those were my suspicions! The bathroom smelled like urine or wet rag, I assumed it was from the lack of a shower liner. There were stains on the wall which appeared to be blood! We went across the road to Wal-Mart to purchase deodorizer and disinfectant, since our requests to have the room disinfected were ignored. The beds were hard as a rock, probably better off bringing your own air mattress. The area was terrible, all we heard at night were ambulance and police sirens. I was afraid to leave anything in the room because the place was so sketchy. We traveled around the area with all of our belongings in our vehicle. You definitely get what you pay for, so I blame myself for going cheap! If you are considering going cheap, just remember that phrase!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Norwalk, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>If you are thinking about staying here please, spend the extra bucks and save yourself the headaches! First off we were deceived because amenities that were stated on the page were not available. WiFi definitely was not available as stated and the webpage. Also mentions, infant/cribs available upon request. When we asked the front desk person, he just gave us a blank stare like we were out of this world. We accepted that neither were available and just decided to go into the room because we were tired from the travel. I turned on the light only to realize it wasn't working. I went to check if there was a bulb and got shocked, I was shaking after that. There were holes in the bathroom wall and the bedroom wall (bullet shaped and covered with a wall picture), can not confirm if that's the actual type of hole, but those were my suspicions! The bathroom smelled like urine or wet rag, I assumed it was from the lack of a shower liner. There were stains on the wall which appeared to be blood! We went across the road to Wal-Mart to purchase deodorizer and disinfectant, since our requests to have the room disinfected were ignored. The beds were hard as a rock, probably better off bringing your own air mattress. The area was terrible, all we heard at night were ambulance and police sirens. I was afraid to leave anything...If you are thinking about staying here please, spend the extra bucks and save yourself the headaches! First off we were deceived because amenities that were stated on the page were not available. WiFi definitely was not available as stated and the webpage. Also mentions, infant/cribs available upon request. When we asked the front desk person, he just gave us a blank stare like we were out of this world. We accepted that neither were available and just decided to go into the room because we were tired from the travel. I turned on the light only to realize it wasn't working. I went to check if there was a bulb and got shocked, I was shaking after that. There were holes in the bathroom wall and the bedroom wall (bullet shaped and covered with a wall picture), can not confirm if that's the actual type of hole, but those were my suspicions! The bathroom smelled like urine or wet rag, I assumed it was from the lack of a shower liner. There were stains on the wall which appeared to be blood! We went across the road to Wal-Mart to purchase deodorizer and disinfectant, since our requests to have the room disinfected were ignored. The beds were hard as a rock, probably better off bringing your own air mattress. The area was terrible, all we heard at night were ambulance and police sirens. I was afraid to leave anything in the room because the place was so sketchy. We traveled around the area with all of our belongings in our vehicle. You definitely get what you pay for, so I blame myself for going cheap! If you are considering going cheap, just remember that phrase!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r398665043-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>398665043</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Run! Runaway! Horrible with roaches.</t>
+  </si>
+  <si>
+    <t>First of all they are now changing it's name to Motel 6, they used to be Rodeway and before that Wetland. We stayed here two nights. The bed is hard as a rock, and makes a lound noise every time you get on/off the bed. The pillows are flat like a tortilla. The smell coming from the a/c unit was that similar to sewer. And we had the company of roaches, yes you read correctly, roaches! Neighborhood looks unsafe. Only good thing, a walmart across the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r260430885-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>260430885</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I read some of the other reviews, so I made sure I looked at the room before I checked in.I was quite pleased with the hotel and service. My room was clean and relatively recently remodeled.The technology services were quite good, with excellent wifi, easy hdmi tv connections, etc. Bed comfortable, pillows fluffy, and sheets starchy and crisp.It was very convenient to the locations in Norwalk I needed to get to for my business.Goes without saying it's not the Ritz-Carlton, but it was a fine motel. No noise when I was there, but I wasn't there on a weekend. I checked in for two nights Sunday evening.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r229865513-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>229865513</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>This hotel disgusts me. If I could give it no rating I would.</t>
+  </si>
+  <si>
+    <t>Booking this hotel was a big mistake. Thinking that I could trust the reviews, I decided to give this one a chance. Before we got to the hotel, I wanted to call in and see what the earliest time for check-in was and if the room was possibly ready if not, no big deal because it was a short time before check-in. 
+So I call, and no one picks up. We head over to this hotel, and it is about 15 min before check-in. We go into the lobby which might I add had no one at the front desk. Not to mention it was extremely stuffy (because it was small), had an odd smell, no ventilation. There was also a rag being used as a doorstop. We rang the bell several times for about 5 min until an old man came out looking like we were inconveniencing him. The people who run the hotel apparently live right behind the front desk, as there was a door leading right into their living space. 
+Anyway, we ask this older guy about the room and when it will be ready. He says 10 min. So we wait. We go back in after the 10 min (its now past check-in time) and he tells me another 10 min and im looking at him like you can't be serious. We go back to the car and I get on the phone with the agency...Booking this hotel was a big mistake. Thinking that I could trust the reviews, I decided to give this one a chance. Before we got to the hotel, I wanted to call in and see what the earliest time for check-in was and if the room was possibly ready if not, no big deal because it was a short time before check-in. So I call, and no one picks up. We head over to this hotel, and it is about 15 min before check-in. We go into the lobby which might I add had no one at the front desk. Not to mention it was extremely stuffy (because it was small), had an odd smell, no ventilation. There was also a rag being used as a doorstop. We rang the bell several times for about 5 min until an old man came out looking like we were inconveniencing him. The people who run the hotel apparently live right behind the front desk, as there was a door leading right into their living space. Anyway, we ask this older guy about the room and when it will be ready. He says 10 min. So we wait. We go back in after the 10 min (its now past check-in time) and he tells me another 10 min and im looking at him like you can't be serious. We go back to the car and I get on the phone with the agency I booked the hotel through. As we are waiting, we see a group of people walk in presumably to get a room. My bf decides to go in and see whats going on because we had been waiting and if they get checked in its going to be a problem. In the meantime, I am on the phone trying to figure out a solution. Turns out, the old man tells everyone to wait outside, and the other group ends up going to another hotel since they didn't have reservations anyway and probably didn't care to put up with the nonsense. Unfortunately, I did. This old mans son, finally drives into the hotel where he came from goes into the lobby, comes back, knocks on my car window talking about are you ready to check in? So I tell my bf to have a word with him since I am still on the phone trying to get a refund or moved to another hotel with the same price for the room. While I am on the phone in my car, I notice that the cleaning people are dressed casually with children following them around. At one point, I saw a young girl (like at least 7-8yrs) pushing a mop bucket to the next room. My bf comes back with the room key noticing that the room they assigned us to had the door wide open already. They said the reason for this was to let fresh air in which at that point I had already had it. I don't know who could have snuck into that room waiting to do who knows what. I would suggest to avoid this hotel. Just seedy all around. The basic level of customer service is non-existent and was a complete waste of time and money.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Booking this hotel was a big mistake. Thinking that I could trust the reviews, I decided to give this one a chance. Before we got to the hotel, I wanted to call in and see what the earliest time for check-in was and if the room was possibly ready if not, no big deal because it was a short time before check-in. 
+So I call, and no one picks up. We head over to this hotel, and it is about 15 min before check-in. We go into the lobby which might I add had no one at the front desk. Not to mention it was extremely stuffy (because it was small), had an odd smell, no ventilation. There was also a rag being used as a doorstop. We rang the bell several times for about 5 min until an old man came out looking like we were inconveniencing him. The people who run the hotel apparently live right behind the front desk, as there was a door leading right into their living space. 
+Anyway, we ask this older guy about the room and when it will be ready. He says 10 min. So we wait. We go back in after the 10 min (its now past check-in time) and he tells me another 10 min and im looking at him like you can't be serious. We go back to the car and I get on the phone with the agency...Booking this hotel was a big mistake. Thinking that I could trust the reviews, I decided to give this one a chance. Before we got to the hotel, I wanted to call in and see what the earliest time for check-in was and if the room was possibly ready if not, no big deal because it was a short time before check-in. So I call, and no one picks up. We head over to this hotel, and it is about 15 min before check-in. We go into the lobby which might I add had no one at the front desk. Not to mention it was extremely stuffy (because it was small), had an odd smell, no ventilation. There was also a rag being used as a doorstop. We rang the bell several times for about 5 min until an old man came out looking like we were inconveniencing him. The people who run the hotel apparently live right behind the front desk, as there was a door leading right into their living space. Anyway, we ask this older guy about the room and when it will be ready. He says 10 min. So we wait. We go back in after the 10 min (its now past check-in time) and he tells me another 10 min and im looking at him like you can't be serious. We go back to the car and I get on the phone with the agency I booked the hotel through. As we are waiting, we see a group of people walk in presumably to get a room. My bf decides to go in and see whats going on because we had been waiting and if they get checked in its going to be a problem. In the meantime, I am on the phone trying to figure out a solution. Turns out, the old man tells everyone to wait outside, and the other group ends up going to another hotel since they didn't have reservations anyway and probably didn't care to put up with the nonsense. Unfortunately, I did. This old mans son, finally drives into the hotel where he came from goes into the lobby, comes back, knocks on my car window talking about are you ready to check in? So I tell my bf to have a word with him since I am still on the phone trying to get a refund or moved to another hotel with the same price for the room. While I am on the phone in my car, I notice that the cleaning people are dressed casually with children following them around. At one point, I saw a young girl (like at least 7-8yrs) pushing a mop bucket to the next room. My bf comes back with the room key noticing that the room they assigned us to had the door wide open already. They said the reason for this was to let fresh air in which at that point I had already had it. I don't know who could have snuck into that room waiting to do who knows what. I would suggest to avoid this hotel. Just seedy all around. The basic level of customer service is non-existent and was a complete waste of time and money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r227757787-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>227757787</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Good price and freeway close</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and the room was cozy.  We stayed in a nonsmoking room and one of our rooms was renovated.  It's a great place to have a short stay and to primarily use the room for sleeping, refreshing, and storing your stuff as you venture around LA.  I would recommend this place for those going on road trips and need a comfortable place to rest.  Also, for those on road trips and need to restock their supplies, it is close to Wal Mart and Target.    My only cons about the motel is the markings on the curtains and the rude older man of the front desk staff.  However, the competitive price and location would be convincing enough for me to return.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and the room was cozy.  We stayed in a nonsmoking room and one of our rooms was renovated.  It's a great place to have a short stay and to primarily use the room for sleeping, refreshing, and storing your stuff as you venture around LA.  I would recommend this place for those going on road trips and need a comfortable place to rest.  Also, for those on road trips and need to restock their supplies, it is close to Wal Mart and Target.    My only cons about the motel is the markings on the curtains and the rude older man of the front desk staff.  However, the competitive price and location would be convincing enough for me to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r207468010-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>207468010</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>A short trip</t>
+  </si>
+  <si>
+    <t>the staff is doing a GREAT job since the place is under going some rentation,the room was clean, the bed was great, the breakfast was SUPER GREAT      I am suer we will be back as a grand son is at Point Park.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r181527382-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>181527382</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>First time moved to west for a Job in LA. This hotel was not to far from downtown but it was in a nice city Norwalk. My  project was for 1 month and for initial 1 week I was staying in Double tree which was a 3 * accommodation but due to some reservation issues I was able to able to stay there. On finding I came to know about this place with $66/day then I thought of staying here for a day or two and then go back to Double tree. But when I checked in the room it was very much similar to double tree in fact it was far better then that. Standard hotel carpet, refrigerator, microwave, iron , television  and right opposite to Walmart and other big stores. After staying here for a day I extended to 2 weeks. It was really a nice place even the management guys are very cool and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>First time moved to west for a Job in LA. This hotel was not to far from downtown but it was in a nice city Norwalk. My  project was for 1 month and for initial 1 week I was staying in Double tree which was a 3 * accommodation but due to some reservation issues I was able to able to stay there. On finding I came to know about this place with $66/day then I thought of staying here for a day or two and then go back to Double tree. But when I checked in the room it was very much similar to double tree in fact it was far better then that. Standard hotel carpet, refrigerator, microwave, iron , television  and right opposite to Walmart and other big stores. After staying here for a day I extended to 2 weeks. It was really a nice place even the management guys are very cool and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r169321033-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>169321033</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Not to happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was ok for me my husband and two kids big beds roomy but smells like stale smoke ...and we booked for Thursday thru Monday and they did over book and we had to go to another hotel but they got the room for us ..but we checked out early from rhodeway inn cause ants were covered on walls bathroom and sofa ..we saw this and up and left it was so bad </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r139171638-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>139171638</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Seemed a bit expensive for $100 in this part of town, considering the sign said low rates.</t>
+  </si>
+  <si>
+    <t>The room is renovated, fridge, microwave, bathroom and washing area.  Bed is hard and the room was musty.  I checked the AC and it was full of mold, hence the must.  In a pinch not a bad place, but you could do be</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r133514998-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>133514998</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Couldnt Ask for Much More</t>
+  </si>
+  <si>
+    <t>When you show up at 2 in the morning, after a long drive it does look a little ghetto, but I did not feel unsafe at all. Actually, in the Daytime. It looked just fine in a decent area. (No its not Beverly Hills, But its not Compton either). When we arrived there was no parking, but the gentleman let us park in the handicap area, which was awesome. I did not want to park somewhere else.   The rooms were obviously remodeled and looked very nice. I really couldnt ask for much more, Stayed here for 2 nights and had no problems whats so over. Def will stay again when visiting my boyfriends family.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>When you show up at 2 in the morning, after a long drive it does look a little ghetto, but I did not feel unsafe at all. Actually, in the Daytime. It looked just fine in a decent area. (No its not Beverly Hills, But its not Compton either). When we arrived there was no parking, but the gentleman let us park in the handicap area, which was awesome. I did not want to park somewhere else.   The rooms were obviously remodeled and looked very nice. I really couldnt ask for much more, Stayed here for 2 nights and had no problems whats so over. Def will stay again when visiting my boyfriends family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r127652973-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>127652973</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Good night sleep</t>
+  </si>
+  <si>
+    <t>It was very easy to book online. When we arrived, the room was ready. Inside was clean and neat, with small refrigerator and micro wave, only thing missing was the popcorn!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r113655336-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>113655336</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>Wouldn't go back there again.</t>
+  </si>
+  <si>
+    <t>First of all; I would say that the rooms are nice and clean. The price is not to bad either, but with that being said there's not much to brag about. The service is not good! This place looks like it's being runned by a whole family, and that is probably the fact. When we first arrived there was no greetings or anything. They continued talking to each other when they saw that we were in the room. There was no information about the breakfast that was included. When we asked if they could call us a taxi they just gave the phone to us, and we had to call for ourselves. The second day we called to asked were the breakfast was served, and got for answer that it was in the office. The office is so small there is only room for two people standing. Breakfast? Well, it was just juice and coffee. No pastries or anything. And that's supposed to be a continental breakfast? I was so annoyed and asked again where the whole breakfast was. He just pointed at the juice. In frustration we walked out.
+After housekeeping all of our stuff were moved to another place and we had to look all around the room to find it again. The remote control to the was not there. And I had to get a new one, without an explanation for why it wasn't in the room...First of all; I would say that the rooms are nice and clean. The price is not to bad either, but with that being said there's not much to brag about. The service is not good! This place looks like it's being runned by a whole family, and that is probably the fact. When we first arrived there was no greetings or anything. They continued talking to each other when they saw that we were in the room. There was no information about the breakfast that was included. When we asked if they could call us a taxi they just gave the phone to us, and we had to call for ourselves. The second day we called to asked were the breakfast was served, and got for answer that it was in the office. The office is so small there is only room for two people standing. Breakfast? Well, it was just juice and coffee. No pastries or anything. And that's supposed to be a continental breakfast? I was so annoyed and asked again where the whole breakfast was. He just pointed at the juice. In frustration we walked out.After housekeeping all of our stuff were moved to another place and we had to look all around the room to find it again. The remote control to the was not there. And I had to get a new one, without an explanation for why it wasn't in the room anymore.And why would you stay in Norwalk? It's really far from everything, so unless you have a car this is not the place to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>First of all; I would say that the rooms are nice and clean. The price is not to bad either, but with that being said there's not much to brag about. The service is not good! This place looks like it's being runned by a whole family, and that is probably the fact. When we first arrived there was no greetings or anything. They continued talking to each other when they saw that we were in the room. There was no information about the breakfast that was included. When we asked if they could call us a taxi they just gave the phone to us, and we had to call for ourselves. The second day we called to asked were the breakfast was served, and got for answer that it was in the office. The office is so small there is only room for two people standing. Breakfast? Well, it was just juice and coffee. No pastries or anything. And that's supposed to be a continental breakfast? I was so annoyed and asked again where the whole breakfast was. He just pointed at the juice. In frustration we walked out.
+After housekeeping all of our stuff were moved to another place and we had to look all around the room to find it again. The remote control to the was not there. And I had to get a new one, without an explanation for why it wasn't in the room...First of all; I would say that the rooms are nice and clean. The price is not to bad either, but with that being said there's not much to brag about. The service is not good! This place looks like it's being runned by a whole family, and that is probably the fact. When we first arrived there was no greetings or anything. They continued talking to each other when they saw that we were in the room. There was no information about the breakfast that was included. When we asked if they could call us a taxi they just gave the phone to us, and we had to call for ourselves. The second day we called to asked were the breakfast was served, and got for answer that it was in the office. The office is so small there is only room for two people standing. Breakfast? Well, it was just juice and coffee. No pastries or anything. And that's supposed to be a continental breakfast? I was so annoyed and asked again where the whole breakfast was. He just pointed at the juice. In frustration we walked out.After housekeeping all of our stuff were moved to another place and we had to look all around the room to find it again. The remote control to the was not there. And I had to get a new one, without an explanation for why it wasn't in the room anymore.And why would you stay in Norwalk? It's really far from everything, so unless you have a car this is not the place to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r81112298-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>81112298</t>
+  </si>
+  <si>
+    <t>09/26/2010</t>
+  </si>
+  <si>
+    <t>Complete Turn around...from my last visit 11/2009</t>
+  </si>
+  <si>
+    <t>Well i stayed here again since i had a good experience the last time(Nov 2009) i was in LA, this time though was an eye opener, same guy checks me in for a 2 night stay, when i came back the next day after going out, my room key doesnt work, so i asked the front desk what happened, she said that the guy that checked me in only put in one night, and didnt apologize, fine it wasnt her fault, but still, so the following morning, as i checked out,  an old lady approached me, i asked if i could check out and get my receipt, she went back and yelled for someone, as it appears it was the same guy who checked me in, (looks like the whole family lives behind the front desk, how convenient for rodeway inn that is, so i asked him what happened to my card/reservation for 2 nights, he said that the card was probably demagnetized, (i do the same thing over and over again, put the key card in my wallet and did the same for my other LA reservation and that DID NOT demagnetize it, first time it happened to me actually) i figured he just didnt care and didnt want my business...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Well i stayed here again since i had a good experience the last time(Nov 2009) i was in LA, this time though was an eye opener, same guy checks me in for a 2 night stay, when i came back the next day after going out, my room key doesnt work, so i asked the front desk what happened, she said that the guy that checked me in only put in one night, and didnt apologize, fine it wasnt her fault, but still, so the following morning, as i checked out,  an old lady approached me, i asked if i could check out and get my receipt, she went back and yelled for someone, as it appears it was the same guy who checked me in, (looks like the whole family lives behind the front desk, how convenient for rodeway inn that is, so i asked him what happened to my card/reservation for 2 nights, he said that the card was probably demagnetized, (i do the same thing over and over again, put the key card in my wallet and did the same for my other LA reservation and that DID NOT demagnetize it, first time it happened to me actually) i figured he just didnt care and didnt want my business...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r76384423-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>76384423</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>Good for the price if you dont mind safety!</t>
+  </si>
+  <si>
+    <t>This hotel was defiintely a "you get what you pay for hotel." The room itself was fairly nice for the kind of hotel you are staying in. The only thing is the comforter was very dirty. I did not sleep under the comforter. Even the pillows were notvery clean. My face got a rash from the pillows which i dont think might have been very clean. Also the bed was hard but nonetheless it was very big. Also SAFETY was an issue. My husband and I did nto feel very safe in the neighborhood. You can hear police sirens and ambulance sirens all night! It was horrible. The hotel is not very secure so anyone can come up to your room if the receptionist is not paying attention. The pictures you see on the website are good angles of the hotel. Yes it is across from a walmart but did not really make me want to stay here anymore. There was no water in the vending machines. Overall this hotel is good if you dont mind paying for a cheap hotel but worrying about safety or security. When I was carrying my luggage to my car, my husband was downstairs and since it is an open hotel there was a sketchy looking man staying a couple of roooms away watching me. Totally would have freaked out if I was female traveling alone. Microwave plus, fridge is a plus. I would...This hotel was defiintely a "you get what you pay for hotel." The room itself was fairly nice for the kind of hotel you are staying in. The only thing is the comforter was very dirty. I did not sleep under the comforter. Even the pillows were notvery clean. My face got a rash from the pillows which i dont think might have been very clean. Also the bed was hard but nonetheless it was very big. Also SAFETY was an issue. My husband and I did nto feel very safe in the neighborhood. You can hear police sirens and ambulance sirens all night! It was horrible. The hotel is not very secure so anyone can come up to your room if the receptionist is not paying attention. The pictures you see on the website are good angles of the hotel. Yes it is across from a walmart but did not really make me want to stay here anymore. There was no water in the vending machines. Overall this hotel is good if you dont mind paying for a cheap hotel but worrying about safety or security. When I was carrying my luggage to my car, my husband was downstairs and since it is an open hotel there was a sketchy looking man staying a couple of roooms away watching me. Totally would have freaked out if I was female traveling alone. Microwave plus, fridge is a plus. I would recommend if looking to come for one night and staying cheap hotel about 25 minutes from airport and you dont plan to leave your room at night or if you are willing to come back before it turns too late.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This hotel was defiintely a "you get what you pay for hotel." The room itself was fairly nice for the kind of hotel you are staying in. The only thing is the comforter was very dirty. I did not sleep under the comforter. Even the pillows were notvery clean. My face got a rash from the pillows which i dont think might have been very clean. Also the bed was hard but nonetheless it was very big. Also SAFETY was an issue. My husband and I did nto feel very safe in the neighborhood. You can hear police sirens and ambulance sirens all night! It was horrible. The hotel is not very secure so anyone can come up to your room if the receptionist is not paying attention. The pictures you see on the website are good angles of the hotel. Yes it is across from a walmart but did not really make me want to stay here anymore. There was no water in the vending machines. Overall this hotel is good if you dont mind paying for a cheap hotel but worrying about safety or security. When I was carrying my luggage to my car, my husband was downstairs and since it is an open hotel there was a sketchy looking man staying a couple of roooms away watching me. Totally would have freaked out if I was female traveling alone. Microwave plus, fridge is a plus. I would...This hotel was defiintely a "you get what you pay for hotel." The room itself was fairly nice for the kind of hotel you are staying in. The only thing is the comforter was very dirty. I did not sleep under the comforter. Even the pillows were notvery clean. My face got a rash from the pillows which i dont think might have been very clean. Also the bed was hard but nonetheless it was very big. Also SAFETY was an issue. My husband and I did nto feel very safe in the neighborhood. You can hear police sirens and ambulance sirens all night! It was horrible. The hotel is not very secure so anyone can come up to your room if the receptionist is not paying attention. The pictures you see on the website are good angles of the hotel. Yes it is across from a walmart but did not really make me want to stay here anymore. There was no water in the vending machines. Overall this hotel is good if you dont mind paying for a cheap hotel but worrying about safety or security. When I was carrying my luggage to my car, my husband was downstairs and since it is an open hotel there was a sketchy looking man staying a couple of roooms away watching me. Totally would have freaked out if I was female traveling alone. Microwave plus, fridge is a plus. I would recommend if looking to come for one night and staying cheap hotel about 25 minutes from airport and you dont plan to leave your room at night or if you are willing to come back before it turns too late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r20202505-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>20202505</t>
+  </si>
+  <si>
+    <t>09/19/2008</t>
+  </si>
+  <si>
+    <t>Very accommodating!</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding and planning a very busy couple of days!  The service at the hotel was very accommodating to our needs during this hectic weekend.  We couldn't wait to get back to the newly renovating rooms, which by the way, were very clean and the rooms were very well maintained.Overall I would say this is the best hotel in the area that I have stayed at.  I plan on returning since I will be handling business in this area more often.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r17762913-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>17762913</t>
+  </si>
+  <si>
+    <t>07/10/2008</t>
+  </si>
+  <si>
+    <t>Rodeway Inn</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a number of times while working in the Norwalk area. It has good service, friendly hotel staff, and is much more affordable than similar hotels in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r17115225-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>17115225</t>
+  </si>
+  <si>
+    <t>06/21/2008</t>
+  </si>
+  <si>
+    <t>Excellent affordable hotel near to Disney</t>
+  </si>
+  <si>
+    <t>Best value for your bucks. Our experience with the hotel was good. The rooms were neat and tidy, good daily room service, welcome gifts, friendly management, best location just 10 miles from Disney, easy access freeways. I would say its a good deal and would not mind to go again if I visit Disney. Its definitely not a luxury hotel so you cannot expect gym, spa, swimming pool but a very good place and rooms for your stay.They also provide microwave which is good in case if you like to cook.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r13241950-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>13241950</t>
+  </si>
+  <si>
+    <t>02/03/2008</t>
+  </si>
+  <si>
+    <t>Nice Remodel</t>
+  </si>
+  <si>
+    <t>We usually stay across the street at the Comfort Inn.  I decided to give the Rodeway a try this time since I knew that it had been recently refurbished.  I didn't expect much after all I had stayed in an Econolodge a few years ago, nothing special real basic. Good for the price.
+This hotel is located directly off of a freeway.  There are some restaurants and fast food located nearby (next door and across the street).
+I was very surprised by the marble or granite counter and window sill, the crown molding, the quiet room heater, new toilet &amp; the furniture.  The frig &amp; microwave worked great.
+The lack of a coffee maker was disconcerting but I was much happier with the frig and microwave.
+The selection of channels on the TV was great!!!  Better than what is available at the Comfort Inn across the street. Which is better that at some other hotels.  (Believe it or not this is often a deciding factor in where we stay).
+The guest (did you forget anything) package was unexpected.  Almost as good as what you get at some resorts. I was sorry that I forgot and left mine.
+I would suggest the hotel add a mattress pad (beds are a little too firm) and additional pillows (they were a bit flat).
+For my one night stay I thought that it was a GREAT value for the money even without a pool....We usually stay across the street at the Comfort Inn.  I decided to give the Rodeway a try this time since I knew that it had been recently refurbished.  I didn't expect much after all I had stayed in an Econolodge a few years ago, nothing special real basic. Good for the price. This hotel is located directly off of a freeway.  There are some restaurants and fast food located nearby (next door and across the street).I was very surprised by the marble or granite counter and window sill, the crown molding, the quiet room heater, new toilet &amp; the furniture.  The frig &amp; microwave worked great. The lack of a coffee maker was disconcerting but I was much happier with the frig and microwave. The selection of channels on the TV was great!!!  Better than what is available at the Comfort Inn across the street. Which is better that at some other hotels.  (Believe it or not this is often a deciding factor in where we stay). The guest (did you forget anything) package was unexpected.  Almost as good as what you get at some resorts. I was sorry that I forgot and left mine. I would suggest the hotel add a mattress pad (beds are a little too firm) and additional pillows (they were a bit flat). For my one night stay I thought that it was a GREAT value for the money even without a pool.I did not add any photos to this review because the ones on the hotels website are actually representative of the rooms.  Note:  I found out from the manager later that coffee is available 24 hours in the little lobby.  They have a coffee service available  upon request that they will bring to your room and that they have began to change out the beds to a more plush model.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>We usually stay across the street at the Comfort Inn.  I decided to give the Rodeway a try this time since I knew that it had been recently refurbished.  I didn't expect much after all I had stayed in an Econolodge a few years ago, nothing special real basic. Good for the price.
+This hotel is located directly off of a freeway.  There are some restaurants and fast food located nearby (next door and across the street).
+I was very surprised by the marble or granite counter and window sill, the crown molding, the quiet room heater, new toilet &amp; the furniture.  The frig &amp; microwave worked great.
+The lack of a coffee maker was disconcerting but I was much happier with the frig and microwave.
+The selection of channels on the TV was great!!!  Better than what is available at the Comfort Inn across the street. Which is better that at some other hotels.  (Believe it or not this is often a deciding factor in where we stay).
+The guest (did you forget anything) package was unexpected.  Almost as good as what you get at some resorts. I was sorry that I forgot and left mine.
+I would suggest the hotel add a mattress pad (beds are a little too firm) and additional pillows (they were a bit flat).
+For my one night stay I thought that it was a GREAT value for the money even without a pool....We usually stay across the street at the Comfort Inn.  I decided to give the Rodeway a try this time since I knew that it had been recently refurbished.  I didn't expect much after all I had stayed in an Econolodge a few years ago, nothing special real basic. Good for the price. This hotel is located directly off of a freeway.  There are some restaurants and fast food located nearby (next door and across the street).I was very surprised by the marble or granite counter and window sill, the crown molding, the quiet room heater, new toilet &amp; the furniture.  The frig &amp; microwave worked great. The lack of a coffee maker was disconcerting but I was much happier with the frig and microwave. The selection of channels on the TV was great!!!  Better than what is available at the Comfort Inn across the street. Which is better that at some other hotels.  (Believe it or not this is often a deciding factor in where we stay). The guest (did you forget anything) package was unexpected.  Almost as good as what you get at some resorts. I was sorry that I forgot and left mine. I would suggest the hotel add a mattress pad (beds are a little too firm) and additional pillows (they were a bit flat). For my one night stay I thought that it was a GREAT value for the money even without a pool.I did not add any photos to this review because the ones on the hotels website are actually representative of the rooms.  Note:  I found out from the manager later that coffee is available 24 hours in the little lobby.  They have a coffee service available  upon request that they will bring to your room and that they have began to change out the beds to a more plush model.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r12514691-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>12514691</t>
+  </si>
+  <si>
+    <t>01/10/2008</t>
+  </si>
+  <si>
+    <t>Expect More Pay Less</t>
+  </si>
+  <si>
+    <t>I initially expected a decent stay during the long weekend for an Affordable price, it turned out to be real cozy and grand. The Hotel is newly remodelled, excellently maintained, well furnished with all amenities and turns out to be 3 Star hotel standards. As I have explained briefly in the Title Expect the treatment of 3Star hotel and pay Rodeway Inn price. One thing worth mentioning apart from HBO cable, new Refrigerator, new Microwave, is wireless high Speed internet.I recommend this hotel to all the people who cannot afford a 5 star hotel but would like that feel within your price range.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r11174595-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>11174595</t>
+  </si>
+  <si>
+    <t>11/30/2007</t>
+  </si>
+  <si>
+    <t>Porn on the TV</t>
+  </si>
+  <si>
+    <t>I stayed here for one night when I was visiting my daughter at college. Though the room was newly renovated, the part of town it is in is not that safe (lobby locked in early evening -- had to check in at an outside window) and as I was clicking through the TV channels, there was a graphic Porn channel that came up.Don't stay here if you have children or you don't want to fill your mind with this. Even if you are trying to click quickly, you can't help but seeing trash. I've stayed at many hotels, and never had this happen before. I will not stay here again, even if it was reasonably priced and newly renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for one night when I was visiting my daughter at college. Though the room was newly renovated, the part of town it is in is not that safe (lobby locked in early evening -- had to check in at an outside window) and as I was clicking through the TV channels, there was a graphic Porn channel that came up.Don't stay here if you have children or you don't want to fill your mind with this. Even if you are trying to click quickly, you can't help but seeing trash. I've stayed at many hotels, and never had this happen before. I will not stay here again, even if it was reasonably priced and newly renovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r8103075-Motel_6_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>8103075</t>
+  </si>
+  <si>
+    <t>07/10/2007</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I booked this room at choice.com based on price. I didn't see any pictures of the place when I booked, so wasn’t sure what to expect. It was a great surprise when I saw the rooms. Very nice décor. Nicest I’ve seen in a Rodeway Inn, but I haven’t stayed at many. Really a great room for the price. The bathroom was really nice too. Everything is new. Would recommend. They still had to finish some things. Only have of the sign out front was up and a banner was on the other side. The front desk guy said the installers broke it when they put it up. Oh and the Internet was pretty fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>I booked this room at choice.com based on price. I didn't see any pictures of the place when I booked, so wasn’t sure what to expect. It was a great surprise when I saw the rooms. Very nice décor. Nicest I’ve seen in a Rodeway Inn, but I haven’t stayed at many. Really a great room for the price. The bathroom was really nice too. Everything is new. Would recommend. They still had to finish some things. Only have of the sign out front was up and a banner was on the other side. The front desk guy said the installers broke it when they put it up. Oh and the Internet was pretty fast.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1100,1398 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19599</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_556.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Vanessa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r429774614-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>If you are thinking about staying here please, spend the extra bucks and save yourself the headaches! First off we were deceived because amenities that were stated on the page were not available. WiFi definitely was not available as stated and the webpage. Also mentions, infant/cribs available upon request. When we asked the front desk person, he just gave us a blank stare like we were out of this world. We accepted that neither were available and just decided to go into the room because we were tired from the travel. I turned on the light only to realize it wasn't working. I went to check if there was a bulb and got shocked, I was shaking after that. There were holes in the bathroom wall and the bedroom wall (bullet shaped and covered with a wall picture), can not confirm if that's the actual type of hole, but those were my suspicions! The bathroom smelled like urine or wet rag, I assumed it was from the lack of a shower liner. There were stains on the wall which appeared to be blood! We went across the road to Wal-Mart to purchase deodorizer and disinfectant, since our requests to have the room disinfected were ignored. The beds were hard as a rock, probably better off bringing your own air mattress. The area was terrible, all we heard at night were ambulance and police sirens. I was afraid to leave anything...If you are thinking about staying here please, spend the extra bucks and save yourself the headaches! First off we were deceived because amenities that were stated on the page were not available. WiFi definitely was not available as stated and the webpage. Also mentions, infant/cribs available upon request. When we asked the front desk person, he just gave us a blank stare like we were out of this world. We accepted that neither were available and just decided to go into the room because we were tired from the travel. I turned on the light only to realize it wasn't working. I went to check if there was a bulb and got shocked, I was shaking after that. There were holes in the bathroom wall and the bedroom wall (bullet shaped and covered with a wall picture), can not confirm if that's the actual type of hole, but those were my suspicions! The bathroom smelled like urine or wet rag, I assumed it was from the lack of a shower liner. There were stains on the wall which appeared to be blood! We went across the road to Wal-Mart to purchase deodorizer and disinfectant, since our requests to have the room disinfected were ignored. The beds were hard as a rock, probably better off bringing your own air mattress. The area was terrible, all we heard at night were ambulance and police sirens. I was afraid to leave anything in the room because the place was so sketchy. We traveled around the area with all of our belongings in our vehicle. You definitely get what you pay for, so I blame myself for going cheap! If you are considering going cheap, just remember that phrase!More</t>
   </si>
   <si>
+    <t>Elduvas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r398665043-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>First of all they are now changing it's name to Motel 6, they used to be Rodeway and before that Wetland. We stayed here two nights. The bed is hard as a rock, and makes a lound noise every time you get on/off the bed. The pillows are flat like a tortilla. The smell coming from the a/c unit was that similar to sewer. And we had the company of roaches, yes you read correctly, roaches! Neighborhood looks unsafe. Only good thing, a walmart across the street.</t>
   </si>
   <si>
+    <t>Travelin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r260430885-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CandlelitDream</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r229865513-Motel_6_Norwalk-Norwalk_California.html</t>
@@ -268,6 +283,9 @@
 Anyway, we ask this older guy about the room and when it will be ready. He says 10 min. So we wait. We go back in after the 10 min (its now past check-in time) and he tells me another 10 min and im looking at him like you can't be serious. We go back to the car and I get on the phone with the agency...Booking this hotel was a big mistake. Thinking that I could trust the reviews, I decided to give this one a chance. Before we got to the hotel, I wanted to call in and see what the earliest time for check-in was and if the room was possibly ready if not, no big deal because it was a short time before check-in. So I call, and no one picks up. We head over to this hotel, and it is about 15 min before check-in. We go into the lobby which might I add had no one at the front desk. Not to mention it was extremely stuffy (because it was small), had an odd smell, no ventilation. There was also a rag being used as a doorstop. We rang the bell several times for about 5 min until an old man came out looking like we were inconveniencing him. The people who run the hotel apparently live right behind the front desk, as there was a door leading right into their living space. Anyway, we ask this older guy about the room and when it will be ready. He says 10 min. So we wait. We go back in after the 10 min (its now past check-in time) and he tells me another 10 min and im looking at him like you can't be serious. We go back to the car and I get on the phone with the agency I booked the hotel through. As we are waiting, we see a group of people walk in presumably to get a room. My bf decides to go in and see whats going on because we had been waiting and if they get checked in its going to be a problem. In the meantime, I am on the phone trying to figure out a solution. Turns out, the old man tells everyone to wait outside, and the other group ends up going to another hotel since they didn't have reservations anyway and probably didn't care to put up with the nonsense. Unfortunately, I did. This old mans son, finally drives into the hotel where he came from goes into the lobby, comes back, knocks on my car window talking about are you ready to check in? So I tell my bf to have a word with him since I am still on the phone trying to get a refund or moved to another hotel with the same price for the room. While I am on the phone in my car, I notice that the cleaning people are dressed casually with children following them around. At one point, I saw a young girl (like at least 7-8yrs) pushing a mop bucket to the next room. My bf comes back with the room key noticing that the room they assigned us to had the door wide open already. They said the reason for this was to let fresh air in which at that point I had already had it. I don't know who could have snuck into that room waiting to do who knows what. I would suggest to avoid this hotel. Just seedy all around. The basic level of customer service is non-existent and was a complete waste of time and money.More</t>
   </si>
   <si>
+    <t>Rey A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r227757787-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -289,6 +307,9 @@
     <t>We enjoyed our stay and the room was cozy.  We stayed in a nonsmoking room and one of our rooms was renovated.  It's a great place to have a short stay and to primarily use the room for sleeping, refreshing, and storing your stuff as you venture around LA.  I would recommend this place for those going on road trips and need a comfortable place to rest.  Also, for those on road trips and need to restock their supplies, it is close to Wal Mart and Target.    My only cons about the motel is the markings on the curtains and the rude older man of the front desk staff.  However, the competitive price and location would be convincing enough for me to return.More</t>
   </si>
   <si>
+    <t>haroldgood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r207468010-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -307,6 +328,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>chandra0907</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r181527382-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -331,6 +355,9 @@
     <t>First time moved to west for a Job in LA. This hotel was not to far from downtown but it was in a nice city Norwalk. My  project was for 1 month and for initial 1 week I was staying in Double tree which was a 3 * accommodation but due to some reservation issues I was able to able to stay there. On finding I came to know about this place with $66/day then I thought of staying here for a day or two and then go back to Double tree. But when I checked in the room it was very much similar to double tree in fact it was far better then that. Standard hotel carpet, refrigerator, microwave, iron , television  and right opposite to Walmart and other big stores. After staying here for a day I extended to 2 weeks. It was really a nice place even the management guys are very cool and helpful.More</t>
   </si>
   <si>
+    <t>Mpatton87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r169321033-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -346,6 +373,9 @@
     <t xml:space="preserve">It was ok for me my husband and two kids big beds roomy but smells like stale smoke ...and we booked for Thursday thru Monday and they did over book and we had to go to another hotel but they got the room for us ..but we checked out early from rhodeway inn cause ants were covered on walls bathroom and sofa ..we saw this and up and left it was so bad </t>
   </si>
   <si>
+    <t>IluvDAredsox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r139171638-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -361,6 +391,9 @@
     <t>The room is renovated, fridge, microwave, bathroom and washing area.  Bed is hard and the room was musty.  I checked the AC and it was full of mold, hence the must.  In a pinch not a bad place, but you could do be</t>
   </si>
   <si>
+    <t>ashleys944</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r133514998-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>When you show up at 2 in the morning, after a long drive it does look a little ghetto, but I did not feel unsafe at all. Actually, in the Daytime. It looked just fine in a decent area. (No its not Beverly Hills, But its not Compton either). When we arrived there was no parking, but the gentleman let us park in the handicap area, which was awesome. I did not want to park somewhere else.   The rooms were obviously remodeled and looked very nice. I really couldnt ask for much more, Stayed here for 2 nights and had no problems whats so over. Def will stay again when visiting my boyfriends family.More</t>
   </si>
   <si>
+    <t>bmwleo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r127652973-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -395,6 +431,9 @@
   </si>
   <si>
     <t>It was very easy to book online. When we arrived, the room was ready. Inside was clean and neat, with small refrigerator and micro wave, only thing missing was the popcorn!</t>
+  </si>
+  <si>
+    <t>LineAlsaker</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r113655336-Motel_6_Norwalk-Norwalk_California.html</t>
@@ -420,6 +459,9 @@
 After housekeeping all of our stuff were moved to another place and we had to look all around the room to find it again. The remote control to the was not there. And I had to get a new one, without an explanation for why it wasn't in the room...First of all; I would say that the rooms are nice and clean. The price is not to bad either, but with that being said there's not much to brag about. The service is not good! This place looks like it's being runned by a whole family, and that is probably the fact. When we first arrived there was no greetings or anything. They continued talking to each other when they saw that we were in the room. There was no information about the breakfast that was included. When we asked if they could call us a taxi they just gave the phone to us, and we had to call for ourselves. The second day we called to asked were the breakfast was served, and got for answer that it was in the office. The office is so small there is only room for two people standing. Breakfast? Well, it was just juice and coffee. No pastries or anything. And that's supposed to be a continental breakfast? I was so annoyed and asked again where the whole breakfast was. He just pointed at the juice. In frustration we walked out.After housekeeping all of our stuff were moved to another place and we had to look all around the room to find it again. The remote control to the was not there. And I had to get a new one, without an explanation for why it wasn't in the room anymore.And why would you stay in Norwalk? It's really far from everything, so unless you have a car this is not the place to go.More</t>
   </si>
   <si>
+    <t>Rich16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r81112298-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>Well i stayed here again since i had a good experience the last time(Nov 2009) i was in LA, this time though was an eye opener, same guy checks me in for a 2 night stay, when i came back the next day after going out, my room key doesnt work, so i asked the front desk what happened, she said that the guy that checked me in only put in one night, and didnt apologize, fine it wasnt her fault, but still, so the following morning, as i checked out,  an old lady approached me, i asked if i could check out and get my receipt, she went back and yelled for someone, as it appears it was the same guy who checked me in, (looks like the whole family lives behind the front desk, how convenient for rodeway inn that is, so i asked him what happened to my card/reservation for 2 nights, he said that the card was probably demagnetized, (i do the same thing over and over again, put the key card in my wallet and did the same for my other LA reservation and that DID NOT demagnetize it, first time it happened to me actually) i figured he just didnt care and didnt want my business...More</t>
   </si>
   <si>
+    <t>mro22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r76384423-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>This hotel was defiintely a "you get what you pay for hotel." The room itself was fairly nice for the kind of hotel you are staying in. The only thing is the comforter was very dirty. I did not sleep under the comforter. Even the pillows were notvery clean. My face got a rash from the pillows which i dont think might have been very clean. Also the bed was hard but nonetheless it was very big. Also SAFETY was an issue. My husband and I did nto feel very safe in the neighborhood. You can hear police sirens and ambulance sirens all night! It was horrible. The hotel is not very secure so anyone can come up to your room if the receptionist is not paying attention. The pictures you see on the website are good angles of the hotel. Yes it is across from a walmart but did not really make me want to stay here anymore. There was no water in the vending machines. Overall this hotel is good if you dont mind paying for a cheap hotel but worrying about safety or security. When I was carrying my luggage to my car, my husband was downstairs and since it is an open hotel there was a sketchy looking man staying a couple of roooms away watching me. Totally would have freaked out if I was female traveling alone. Microwave plus, fridge is a plus. I would...This hotel was defiintely a "you get what you pay for hotel." The room itself was fairly nice for the kind of hotel you are staying in. The only thing is the comforter was very dirty. I did not sleep under the comforter. Even the pillows were notvery clean. My face got a rash from the pillows which i dont think might have been very clean. Also the bed was hard but nonetheless it was very big. Also SAFETY was an issue. My husband and I did nto feel very safe in the neighborhood. You can hear police sirens and ambulance sirens all night! It was horrible. The hotel is not very secure so anyone can come up to your room if the receptionist is not paying attention. The pictures you see on the website are good angles of the hotel. Yes it is across from a walmart but did not really make me want to stay here anymore. There was no water in the vending machines. Overall this hotel is good if you dont mind paying for a cheap hotel but worrying about safety or security. When I was carrying my luggage to my car, my husband was downstairs and since it is an open hotel there was a sketchy looking man staying a couple of roooms away watching me. Totally would have freaked out if I was female traveling alone. Microwave plus, fridge is a plus. I would recommend if looking to come for one night and staying cheap hotel about 25 minutes from airport and you dont plan to leave your room at night or if you are willing to come back before it turns too late.More</t>
   </si>
   <si>
+    <t>Mel0322</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r20202505-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>BM_WA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r17762913-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>I have stayed at this hotel a number of times while working in the Norwalk area. It has good service, friendly hotel staff, and is much more affordable than similar hotels in the area.</t>
   </si>
   <si>
+    <t>Chierag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r17115225-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -511,6 +565,9 @@
   </si>
   <si>
     <t>May 2008</t>
+  </si>
+  <si>
+    <t>shadith</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r13241950-Motel_6_Norwalk-Norwalk_California.html</t>
@@ -548,6 +605,9 @@
 For my one night stay I thought that it was a GREAT value for the money even without a pool....We usually stay across the street at the Comfort Inn.  I decided to give the Rodeway a try this time since I knew that it had been recently refurbished.  I didn't expect much after all I had stayed in an Econolodge a few years ago, nothing special real basic. Good for the price. This hotel is located directly off of a freeway.  There are some restaurants and fast food located nearby (next door and across the street).I was very surprised by the marble or granite counter and window sill, the crown molding, the quiet room heater, new toilet &amp; the furniture.  The frig &amp; microwave worked great. The lack of a coffee maker was disconcerting but I was much happier with the frig and microwave. The selection of channels on the TV was great!!!  Better than what is available at the Comfort Inn across the street. Which is better that at some other hotels.  (Believe it or not this is often a deciding factor in where we stay). The guest (did you forget anything) package was unexpected.  Almost as good as what you get at some resorts. I was sorry that I forgot and left mine. I would suggest the hotel add a mattress pad (beds are a little too firm) and additional pillows (they were a bit flat). For my one night stay I thought that it was a GREAT value for the money even without a pool.I did not add any photos to this review because the ones on the hotels website are actually representative of the rooms.  Note:  I found out from the manager later that coffee is available 24 hours in the little lobby.  They have a coffee service available  upon request that they will bring to your room and that they have began to change out the beds to a more plush model.More</t>
   </si>
   <si>
+    <t>sanbond007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r12514691-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -563,6 +623,9 @@
     <t>I initially expected a decent stay during the long weekend for an Affordable price, it turned out to be real cozy and grand. The Hotel is newly remodelled, excellently maintained, well furnished with all amenities and turns out to be 3 Star hotel standards. As I have explained briefly in the Title Expect the treatment of 3Star hotel and pay Rodeway Inn price. One thing worth mentioning apart from HBO cable, new Refrigerator, new Microwave, is wireless high Speed internet.I recommend this hotel to all the people who cannot afford a 5 star hotel but would like that feel within your price range.</t>
   </si>
   <si>
+    <t>BasketsSeattle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r11174595-Motel_6_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -579,6 +642,9 @@
   </si>
   <si>
     <t>I stayed here for one night when I was visiting my daughter at college. Though the room was newly renovated, the part of town it is in is not that safe (lobby locked in early evening -- had to check in at an outside window) and as I was clicking through the TV channels, there was a graphic Porn channel that came up.Don't stay here if you have children or you don't want to fill your mind with this. Even if you are trying to click quickly, you can't help but seeing trash. I've stayed at many hotels, and never had this happen before. I will not stay here again, even if it was reasonably priced and newly renovated.More</t>
+  </si>
+  <si>
+    <t>npatel2361</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d653448-r8103075-Motel_6_Norwalk-Norwalk_California.html</t>
@@ -1104,43 +1170,47 @@
       <c r="A2" t="n">
         <v>19599</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1154,50 +1224,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19599</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1213,56 +1287,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19599</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1276,50 +1354,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19599</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1339,50 +1421,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19599</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1400,50 +1486,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19599</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1463,50 +1553,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19599</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1530,50 +1624,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19599</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1597,41 +1695,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19599</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
@@ -1660,41 +1762,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19599</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
@@ -1723,50 +1829,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19599</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1790,41 +1900,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19599</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -1853,50 +1967,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19599</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1916,50 +2034,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19599</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1983,50 +2105,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19599</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2050,50 +2176,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19599</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2117,41 +2247,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19599</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2170,50 +2304,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19599</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2237,50 +2375,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19599</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2304,41 +2446,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19599</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -2357,50 +2503,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19599</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2422,50 +2572,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19599</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2489,7 +2643,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
